--- a/data/raw/psp/PSP_data_dictionary_20240125.xlsx
+++ b/data/raw/psp/PSP_data_dictionary_20240125.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/hsouth11_student_ubc_ca/Documents/Msc/R_MSc/data/raw/psp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E9ED3BC522747E92055810BFCE621DA4CDA78A98" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{730444B6-2603-2545-B579-F91ACF74C087}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E9ED3BC522747E92055810BFCE621DA4CDA78A98" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{730444B6-2603-2545-B579-F91ACF74C087}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="820" windowWidth="24760" windowHeight="14660" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="820" windowWidth="24760" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="faib_header" sheetId="1" r:id="rId1"/>
@@ -1050,6 +1050,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2753,7 +2757,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/raw/psp/PSP_data_dictionary_20240125.xlsx
+++ b/data/raw/psp/PSP_data_dictionary_20240125.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/hsouth11_student_ubc_ca/Documents/Msc/R_MSc/data/raw/psp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E9ED3BC522747E92055810BFCE621DA4CDA78A98" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{730444B6-2603-2545-B579-F91ACF74C087}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_E9ED3BC522747E92055810BFCE621DA4CDA78A98" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CFBFC21-F0D8-9E48-A47A-DB88526F18ED}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="820" windowWidth="24760" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="820" windowWidth="24760" windowHeight="14660" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="faib_header" sheetId="1" r:id="rId1"/>
@@ -1033,8 +1033,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1338,7 +1341,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1553,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1705,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2756,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3106,11 +3109,11 @@
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>308</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>309</v>
       </c>
     </row>

--- a/data/raw/psp/PSP_data_dictionary_20240125.xlsx
+++ b/data/raw/psp/PSP_data_dictionary_20240125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/hsouth11_student_ubc_ca/Documents/Msc/R_MSc/data/raw/psp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_E9ED3BC522747E92055810BFCE621DA4CDA78A98" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CFBFC21-F0D8-9E48-A47A-DB88526F18ED}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_E9ED3BC522747E92055810BFCE621DA4CDA78A98" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46F6286F-7EC5-4340-A5DA-55212AB16D4F}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="820" windowWidth="24760" windowHeight="14660" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1035,9 +1035,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2759,8 +2757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3109,7 +3107,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>308</v>
       </c>
